--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ChenhLechTiGiaHoiDoai.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ChenhLechTiGiaHoiDoai.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$11:$N$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$N$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$N$22</definedName>
     <definedName name="_xlnm.Print_Titles">Sheet1!$B$8:$N$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -97,18 +97,6 @@
   </si>
   <si>
     <t>&lt;#auto page breaks&gt;</t>
-  </si>
-  <si>
-    <t>BỘ QUỐC PHÒNG</t>
-  </si>
-  <si>
-    <t>&lt;#sTenDonVi&gt;</t>
-  </si>
-  <si>
-    <t>BÁO CÁO CHÊNH LỆCH TỈ GIÁ HỐI ĐOÁI THEO HỢP ĐỒNG CỦA</t>
-  </si>
-  <si>
-    <t>NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI</t>
   </si>
   <si>
     <t>Theo KHTT 
@@ -175,9 +163,6 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>NGƯỜI LẬP BIỂU</t>
-  </si>
-  <si>
     <t>&lt;#if(&lt;#dt.IsBold&gt;=1;&lt;#dt.sTen&gt;&lt;#AltFormatTextBold&gt;;&lt;#dt.sTen&gt;&lt;#AltFormatTextBox&gt;)&gt;&lt;#Row height(Autofit)&gt;</t>
   </si>
   <si>
@@ -239,13 +224,37 @@
   </si>
   <si>
     <t>&lt;#format cell(fmTextBoxRight)&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#TieuDe1&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#TieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#TieuDe3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#ThuaLenh1&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#ChucDanh1&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#sTenDonViCapTren&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#sTenDonViCapDuoi&gt;))&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,15 +377,22 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -501,7 +517,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,9 +545,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -550,9 +563,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -579,52 +589,52 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -914,7 +924,7 @@
   <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,258 +942,264 @@
     <col min="16" max="16384" width="1.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="K1" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-    </row>
-    <row r="2" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="K1" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-    </row>
-    <row r="5" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-    </row>
-    <row r="6" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+    </row>
+    <row r="4" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+    </row>
+    <row r="5" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="2:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45" t="s">
+      <c r="N8" s="51"/>
+    </row>
+    <row r="9" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49"/>
+      <c r="C9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="50"/>
+      <c r="C10" s="41">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41">
+        <v>3</v>
+      </c>
+      <c r="F10" s="41">
+        <v>4</v>
+      </c>
+      <c r="G10" s="41">
+        <v>5</v>
+      </c>
+      <c r="H10" s="41">
+        <v>6</v>
+      </c>
+      <c r="I10" s="41">
+        <v>7</v>
+      </c>
+      <c r="J10" s="41">
+        <v>8</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="45"/>
-    </row>
-    <row r="9" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="28" t="s">
+      <c r="M10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="N10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="28">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28">
-        <v>2</v>
-      </c>
-      <c r="E10" s="28">
-        <v>3</v>
-      </c>
-      <c r="F10" s="28">
-        <v>4</v>
-      </c>
-      <c r="G10" s="28">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28">
-        <v>6</v>
-      </c>
-      <c r="I10" s="28">
-        <v>7</v>
-      </c>
-      <c r="J10" s="28">
-        <v>8</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="F11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="I11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="J11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="K11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="L11" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="M11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="N11" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -1193,46 +1209,56 @@
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="16"/>
-      <c r="L15" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+    </row>
+    <row r="16" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="L16" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1242,19 +1268,27 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1264,30 +1298,42 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+    </row>
+    <row r="22" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1297,25 +1343,34 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
+      <c r="K22" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="19">
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K17:N21"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -1520,83 +1575,83 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="37" t="s">
-        <v>48</v>
+      <c r="N10" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>65</v>
+      <c r="H13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>67</v>
+      <c r="H14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H15" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>38</v>
+      <c r="H15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="H16" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>41</v>
+      <c r="H16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
